--- a/utilis/LoanDetails_Locked.xlsx
+++ b/utilis/LoanDetails_Locked.xlsx
@@ -22,34 +22,37 @@
     <t>Fixed</t>
   </si>
   <si>
-    <t>376000</t>
-  </si>
-  <si>
-    <t>Attached</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>F_DEEPIKA_23SEP_25_006</t>
-  </si>
-  <si>
-    <t>L_DEEPIKA_23SEP_25_006</t>
+    <t>180000</t>
+  </si>
+  <si>
+    <t>Detached</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>TPO_Y</t>
   </si>
   <si>
     <t>Null Value</t>
   </si>
   <si>
-    <t>96.50</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>46.812</t>
-  </si>
-  <si>
-    <t>800</t>
+    <t>94.31</t>
+  </si>
+  <si>
+    <t>Blue Island</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>false</t>
@@ -58,10 +61,10 @@
     <t>TI</t>
   </si>
   <si>
-    <t>362840</t>
-  </si>
-  <si>
-    <t>TestSigma_29-09-2025_SC1_23_544</t>
+    <t>169750</t>
+  </si>
+  <si>
+    <t>DEN_20251006_10001_TPO_Y</t>
   </si>
   <si>
     <t>Purchase</t>
@@ -70,52 +73,52 @@
     <t>360</t>
   </si>
   <si>
-    <t>5445.42</t>
-  </si>
-  <si>
-    <t>FHA</t>
-  </si>
-  <si>
-    <t>6.875</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>Conventional</t>
+  </si>
+  <si>
+    <t>7.500</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>PrimaryResidence</t>
   </si>
   <si>
-    <t>110_20/25/30 Yr FHA Fixed-GNMA II</t>
-  </si>
-  <si>
-    <t>UnitDwelling_2_4</t>
+    <t>212_25/30 Yr Fannie Mae Fixed</t>
+  </si>
+  <si>
+    <t>SingleFamily</t>
+  </si>
+  <si>
+    <t>175000</t>
   </si>
   <si>
     <t>IL</t>
   </si>
   <si>
-    <t>4248 W Wilcox St</t>
+    <t>12714 Mozart St</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>60624</t>
-  </si>
-  <si>
-    <t>110</t>
+    <t>60406</t>
+  </si>
+  <si>
+    <t>212</t>
   </si>
   <si>
     <t>A4187</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>2606.00</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>8234.00</t>
   </si>
   <si>
     <t>16984</t>
@@ -133,13 +136,10 @@
     <t>COOK</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>1.24022</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
   <si>
     <t>-0.04</t>
@@ -631,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">

--- a/utilis/LoanDetails_Locked.xlsx
+++ b/utilis/LoanDetails_Locked.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Index</t>
   </si>
@@ -19,130 +19,133 @@
     <t>LoanDetails</t>
   </si>
   <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>Null Value</t>
+  </si>
+  <si>
     <t>Fixed</t>
   </si>
   <si>
-    <t>180000</t>
-  </si>
-  <si>
-    <t>Detached</t>
-  </si>
-  <si>
-    <t>DU</t>
-  </si>
-  <si>
-    <t>Denis</t>
-  </si>
-  <si>
-    <t>TPO_Y</t>
-  </si>
-  <si>
-    <t>Null Value</t>
-  </si>
-  <si>
-    <t>94.31</t>
-  </si>
-  <si>
-    <t>Blue Island</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>777</t>
+    <t>425000</t>
+  </si>
+  <si>
+    <t>150011</t>
+  </si>
+  <si>
+    <t>FN_Deepika_JULY_16_11</t>
+  </si>
+  <si>
+    <t>LN_Deepika_JULY_16_11</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>Deepika_JULY_16_11</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>2001.00</t>
+  </si>
+  <si>
+    <t>Refinance</t>
+  </si>
+  <si>
+    <t>Conventional</t>
+  </si>
+  <si>
+    <t>6.500</t>
+  </si>
+  <si>
+    <t>SecondaryVacation</t>
+  </si>
+  <si>
+    <t>150023</t>
+  </si>
+  <si>
+    <t>214_25/30 Yr Freddie Mac Fixed</t>
+  </si>
+  <si>
+    <t>14436 Andover Birch Drive</t>
+  </si>
+  <si>
+    <t>Rosharon</t>
+  </si>
+  <si>
+    <t>Attached</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>PlannedUnitDevelopment</t>
+  </si>
+  <si>
+    <t>77583</t>
+  </si>
+  <si>
+    <t>168727</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>318750</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>A4257</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>6708.01</t>
+  </si>
+  <si>
+    <t>26420</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>48157</t>
+  </si>
+  <si>
+    <t>FORT BEND</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>169750</t>
-  </si>
-  <si>
-    <t>DEN_20251006_10001_TPO_Y</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>Conventional</t>
-  </si>
-  <si>
-    <t>7.500</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>PrimaryResidence</t>
-  </si>
-  <si>
-    <t>212_25/30 Yr Fannie Mae Fixed</t>
-  </si>
-  <si>
-    <t>SingleFamily</t>
-  </si>
-  <si>
-    <t>175000</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>12714 Mozart St</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>60406</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>A4187</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>8234.00</t>
-  </si>
-  <si>
-    <t>16984</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>17031</t>
-  </si>
-  <si>
-    <t>COOK</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>-0.04</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B58"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +730,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +738,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +746,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +754,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +762,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +786,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +794,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +802,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +818,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +826,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +834,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +842,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +850,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +866,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +874,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +882,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +890,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +898,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +906,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +914,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +922,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +938,55 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
